--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA96F1D0-4832-4B4F-A572-9D29976EFD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A2F01-94C6-49CC-88A9-6D709A1A1B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,12 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B8789-5BD0-4AD0-9975-BDC3236D4EC4}">
-  <dimension ref="A1"/>
+  <dimension ref="F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="15" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A2F01-94C6-49CC-88A9-6D709A1A1B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4B938-F8CE-4A7E-8E9D-D72E746FAFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t xml:space="preserve">      </t>
   </si>
@@ -486,15 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B8789-5BD0-4AD0-9975-BDC3236D4EC4}">
-  <dimension ref="F15"/>
+  <dimension ref="F12:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="15" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>0</v>
       </c>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4B938-F8CE-4A7E-8E9D-D72E746FAFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8190BAA-3B67-4E57-B7B7-A0AF400EEAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -54,12 +54,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +502,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="12" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8190BAA-3B67-4E57-B7B7-A0AF400EEAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD513C-E8EF-4BF1-865D-28295E437318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -54,18 +54,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +76,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +490,7 @@
   <dimension ref="F12:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD513C-E8EF-4BF1-865D-28295E437318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D67836-E89E-42D8-9CC9-48720E101F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>fffff</t>
   </si>
 </sst>
 </file>
@@ -74,9 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B8789-5BD0-4AD0-9975-BDC3236D4EC4}">
-  <dimension ref="F12:H15"/>
+  <dimension ref="E12:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -496,7 +498,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="12" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -505,6 +507,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D67836-E89E-42D8-9CC9-48720E101F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404CFCCF-797C-49C6-A1D6-D364A31E3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>fffff</t>
   </si>
 </sst>
 </file>
@@ -489,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B8789-5BD0-4AD0-9975-BDC3236D4EC4}">
-  <dimension ref="E12:H18"/>
+  <dimension ref="F12:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -507,11 +504,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404CFCCF-797C-49C6-A1D6-D364A31E3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2485D1D7-FA7B-4500-8CF5-1EB45FEFF826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
   </si>
 </sst>
 </file>
@@ -486,20 +489,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B8789-5BD0-4AD0-9975-BDC3236D4EC4}">
-  <dimension ref="F12:H15"/>
+  <dimension ref="F12:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>0</v>
       </c>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2485D1D7-FA7B-4500-8CF5-1EB45FEFF826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB4CE5-42FB-4863-A0EA-33B529111564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve">      </t>
   </si>
   <si>
     <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>llllll</t>
   </si>
 </sst>
 </file>
@@ -489,14 +492,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B8789-5BD0-4AD0-9975-BDC3236D4EC4}">
-  <dimension ref="F12:J15"/>
+  <dimension ref="F9:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>0</v>

--- a/5. Pivot_Table.xlsx
+++ b/5. Pivot_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB4CE5-42FB-4863-A0EA-33B529111564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790F3F9-9119-46F5-A86D-AD36800DCCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE58C59-A248-41C1-8C2D-0D0886A2AA2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t xml:space="preserve">      </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>llllll</t>
+  </si>
+  <si>
+    <t>llljjjjjgggggg</t>
   </si>
 </sst>
 </file>
@@ -492,30 +495,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B8789-5BD0-4AD0-9975-BDC3236D4EC4}">
-  <dimension ref="F9:J15"/>
+  <dimension ref="F9:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:13" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:13" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>0</v>
       </c>
